--- a/classification/Real estate valuation data set.xlsx
+++ b/classification/Real estate valuation data set.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI-Final\classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CF853D-DE6A-40B8-94C2-8DA53F3F9EFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20016" windowHeight="9108"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,10 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>No</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X1 transaction date</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -57,19 +54,19 @@
     <t>Y house price of unit area</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>X1 transaction year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -89,7 +86,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -147,7 +144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,13 +160,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -446,43 +446,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H415"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="8" width="30.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:8" ht="18.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -490,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C2" s="4">
         <v>32</v>
@@ -516,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C3" s="4">
         <v>19.5</v>
@@ -542,7 +548,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C4" s="4">
         <v>13.3</v>
@@ -568,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C5" s="4">
         <v>13.3</v>
@@ -594,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -620,7 +626,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C7" s="4">
         <v>7.1</v>
@@ -646,7 +652,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C8" s="4">
         <v>34.5</v>
@@ -672,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C9" s="4">
         <v>20.3</v>
@@ -698,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C10" s="4">
         <v>31.7</v>
@@ -724,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C11" s="4">
         <v>17.899999999999999</v>
@@ -750,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C12" s="4">
         <v>34.799999999999997</v>
@@ -776,7 +782,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C13" s="4">
         <v>6.3</v>
@@ -802,7 +808,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C14" s="4">
         <v>13</v>
@@ -828,7 +834,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C15" s="4">
         <v>20.399999999999999</v>
@@ -854,7 +860,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C16" s="4">
         <v>13.2</v>
@@ -880,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C17" s="4">
         <v>35.700000000000003</v>
@@ -906,7 +912,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
@@ -932,7 +938,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C19" s="4">
         <v>17.7</v>
@@ -958,7 +964,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C20" s="4">
         <v>16.899999999999999</v>
@@ -984,7 +990,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C21" s="4">
         <v>1.5</v>
@@ -1010,7 +1016,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C22" s="4">
         <v>4.5</v>
@@ -1036,7 +1042,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C23" s="4">
         <v>10.5</v>
@@ -1062,7 +1068,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C24" s="4">
         <v>14.7</v>
@@ -1088,7 +1094,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C25" s="4">
         <v>10.1</v>
@@ -1140,7 +1146,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C27" s="4">
         <v>29.3</v>
@@ -1166,7 +1172,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C28" s="4">
         <v>3.1</v>
@@ -1192,7 +1198,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C29" s="4">
         <v>10.4</v>
@@ -1218,7 +1224,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C30" s="4">
         <v>19.2</v>
@@ -1244,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C31" s="4">
         <v>7.1</v>
@@ -1270,7 +1276,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C32" s="4">
         <v>25.9</v>
@@ -1296,7 +1302,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C33" s="4">
         <v>29.6</v>
@@ -1322,7 +1328,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C34" s="4">
         <v>37.9</v>
@@ -1348,7 +1354,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C35" s="4">
         <v>16.5</v>
@@ -1374,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C36" s="4">
         <v>15.4</v>
@@ -1400,7 +1406,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C37" s="4">
         <v>13.9</v>
@@ -1426,7 +1432,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C38" s="4">
         <v>14.7</v>
@@ -1452,7 +1458,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C39" s="4">
         <v>12</v>
@@ -1478,7 +1484,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C40" s="4">
         <v>3.1</v>
@@ -1504,7 +1510,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C41" s="4">
         <v>16.2</v>
@@ -1556,7 +1562,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C43" s="4">
         <v>16.8</v>
@@ -1582,7 +1588,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C44" s="4">
         <v>36.1</v>
@@ -1608,7 +1614,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C45" s="4">
         <v>34.4</v>
@@ -1634,7 +1640,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C46" s="4">
         <v>2.7</v>
@@ -1660,7 +1666,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C47" s="4">
         <v>36.6</v>
@@ -1686,7 +1692,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C48" s="4">
         <v>21.7</v>
@@ -1712,7 +1718,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C49" s="4">
         <v>35.9</v>
@@ -1738,7 +1744,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C50" s="4">
         <v>24.2</v>
@@ -1764,7 +1770,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C51" s="4">
         <v>29.4</v>
@@ -1790,7 +1796,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C52" s="4">
         <v>21.7</v>
@@ -1816,7 +1822,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C53" s="4">
         <v>31.3</v>
@@ -1842,7 +1848,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C54" s="4">
         <v>32.1</v>
@@ -1868,7 +1874,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C55" s="4">
         <v>13.3</v>
@@ -1894,7 +1900,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C56" s="4">
         <v>16.100000000000001</v>
@@ -1920,7 +1926,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C57" s="4">
         <v>31.7</v>
@@ -1946,7 +1952,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C58" s="4">
         <v>33.6</v>
@@ -1972,7 +1978,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C59" s="4">
         <v>3.5</v>
@@ -1998,7 +2004,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C60" s="4">
         <v>30.3</v>
@@ -2024,7 +2030,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C61" s="4">
         <v>13.3</v>
@@ -2050,7 +2056,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C62" s="4">
         <v>11</v>
@@ -2076,7 +2082,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C63" s="4">
         <v>5.3</v>
@@ -2102,7 +2108,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C64" s="4">
         <v>17.2</v>
@@ -2128,7 +2134,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C65" s="4">
         <v>2.6</v>
@@ -2154,7 +2160,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C66" s="4">
         <v>17.5</v>
@@ -2180,7 +2186,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C67" s="4">
         <v>40.1</v>
@@ -2232,7 +2238,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C69" s="4">
         <v>8.5</v>
@@ -2258,7 +2264,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C70" s="4">
         <v>30.4</v>
@@ -2284,7 +2290,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C71" s="4">
         <v>12.5</v>
@@ -2310,7 +2316,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C72" s="4">
         <v>6.6</v>
@@ -2336,7 +2342,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C73" s="4">
         <v>35.5</v>
@@ -2362,7 +2368,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C74" s="4">
         <v>32.5</v>
@@ -2388,7 +2394,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C75" s="4">
         <v>13.8</v>
@@ -2414,7 +2420,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C76" s="4">
         <v>6.8</v>
@@ -2440,7 +2446,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C77" s="4">
         <v>12.3</v>
@@ -2466,7 +2472,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C78" s="4">
         <v>35.9</v>
@@ -2492,7 +2498,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C79" s="4">
         <v>20.5</v>
@@ -2518,7 +2524,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C80" s="4">
         <v>38.200000000000003</v>
@@ -2570,7 +2576,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C82" s="4">
         <v>11.8</v>
@@ -2622,7 +2628,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C84" s="4">
         <v>13.2</v>
@@ -2648,7 +2654,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C85" s="4">
         <v>25.3</v>
@@ -2674,7 +2680,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C86" s="4">
         <v>15.1</v>
@@ -2700,7 +2706,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
@@ -2726,7 +2732,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C88" s="4">
         <v>1.8</v>
@@ -2752,7 +2758,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C89" s="4">
         <v>16.899999999999999</v>
@@ -2778,7 +2784,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C90" s="4">
         <v>8.9</v>
@@ -2804,7 +2810,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C91" s="4">
         <v>23</v>
@@ -2830,7 +2836,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C92" s="4">
         <v>0</v>
@@ -2856,7 +2862,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C93" s="4">
         <v>9.1</v>
@@ -2882,7 +2888,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C94" s="4">
         <v>20.6</v>
@@ -2908,7 +2914,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C95" s="4">
         <v>31.9</v>
@@ -2934,7 +2940,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C96" s="4">
         <v>40.9</v>
@@ -2960,7 +2966,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C97" s="4">
         <v>8</v>
@@ -2986,7 +2992,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C98" s="4">
         <v>6.4</v>
@@ -3012,7 +3018,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C99" s="4">
         <v>28.4</v>
@@ -3038,7 +3044,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C100" s="4">
         <v>16.399999999999999</v>
@@ -3064,7 +3070,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C101" s="4">
         <v>6.4</v>
@@ -3090,7 +3096,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C102" s="4">
         <v>17.5</v>
@@ -3116,7 +3122,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C103" s="4">
         <v>12.7</v>
@@ -3142,7 +3148,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C104" s="4">
         <v>1.1000000000000001</v>
@@ -3168,7 +3174,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C105" s="4">
         <v>0</v>
@@ -3194,7 +3200,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C106" s="4">
         <v>32.700000000000003</v>
@@ -3220,7 +3226,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C107" s="4">
         <v>0</v>
@@ -3246,7 +3252,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C108" s="4">
         <v>17.2</v>
@@ -3272,7 +3278,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C109" s="4">
         <v>12.2</v>
@@ -3298,7 +3304,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C110" s="4">
         <v>31.4</v>
@@ -3324,7 +3330,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C111" s="4">
         <v>4</v>
@@ -3350,7 +3356,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C112" s="4">
         <v>8.1</v>
@@ -3376,7 +3382,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C113" s="4">
         <v>33.299999999999997</v>
@@ -3402,7 +3408,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C114" s="4">
         <v>9.9</v>
@@ -3428,7 +3434,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C115" s="4">
         <v>14.8</v>
@@ -3454,7 +3460,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C116" s="4">
         <v>30.6</v>
@@ -3480,7 +3486,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C117" s="4">
         <v>20.6</v>
@@ -3558,7 +3564,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C120" s="4">
         <v>25.3</v>
@@ -3584,7 +3590,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C121" s="4">
         <v>16.600000000000001</v>
@@ -3610,7 +3616,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C122" s="4">
         <v>13.3</v>
@@ -3636,7 +3642,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C123" s="4">
         <v>13.6</v>
@@ -3662,7 +3668,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C124" s="4">
         <v>31.5</v>
@@ -3688,7 +3694,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C125" s="4">
         <v>0</v>
@@ -3714,7 +3720,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C126" s="4">
         <v>9.9</v>
@@ -3740,7 +3746,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C127" s="4">
         <v>1.1000000000000001</v>
@@ -3766,7 +3772,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C128" s="4">
         <v>38.6</v>
@@ -3792,7 +3798,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C129" s="4">
         <v>3.8</v>
@@ -3818,7 +3824,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C130" s="4">
         <v>41.3</v>
@@ -3844,7 +3850,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C131" s="4">
         <v>38.5</v>
@@ -3870,7 +3876,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C132" s="4">
         <v>29.6</v>
@@ -3896,7 +3902,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C133" s="4">
         <v>4</v>
@@ -3922,7 +3928,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C134" s="4">
         <v>26.6</v>
@@ -3948,7 +3954,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C135" s="4">
         <v>18</v>
@@ -3974,7 +3980,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C136" s="4">
         <v>33.4</v>
@@ -4000,7 +4006,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C137" s="4">
         <v>18.899999999999999</v>
@@ -4026,7 +4032,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C138" s="4">
         <v>11.4</v>
@@ -4052,7 +4058,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C139" s="4">
         <v>13.6</v>
@@ -4078,7 +4084,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C140" s="4">
         <v>10</v>
@@ -4104,7 +4110,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C141" s="4">
         <v>12.9</v>
@@ -4130,7 +4136,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C142" s="4">
         <v>16.2</v>
@@ -4156,7 +4162,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C143" s="4">
         <v>5.0999999999999996</v>
@@ -4182,7 +4188,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C144" s="4">
         <v>19.8</v>
@@ -4208,7 +4214,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C145" s="4">
         <v>13.6</v>
@@ -4234,7 +4240,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C146" s="4">
         <v>11.9</v>
@@ -4260,7 +4266,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C147" s="4">
         <v>2.1</v>
@@ -4286,7 +4292,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C148" s="4">
         <v>0</v>
@@ -4312,7 +4318,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C149" s="4">
         <v>3.2</v>
@@ -4338,7 +4344,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C150" s="4">
         <v>16.399999999999999</v>
@@ -4364,7 +4370,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C151" s="4">
         <v>34.9</v>
@@ -4390,7 +4396,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C152" s="4">
         <v>35.799999999999997</v>
@@ -4416,7 +4422,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C153" s="4">
         <v>4.9000000000000004</v>
@@ -4442,7 +4448,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C154" s="4">
         <v>12</v>
@@ -4468,7 +4474,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C155" s="4">
         <v>6.5</v>
@@ -4494,7 +4500,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C156" s="4">
         <v>16.899999999999999</v>
@@ -4520,7 +4526,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C157" s="4">
         <v>13.8</v>
@@ -4546,7 +4552,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C158" s="4">
         <v>30.7</v>
@@ -4572,7 +4578,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C159" s="4">
         <v>16.100000000000001</v>
@@ -4624,7 +4630,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C161" s="4">
         <v>15.5</v>
@@ -4650,7 +4656,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C162" s="4">
         <v>3.5</v>
@@ -4676,7 +4682,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C163" s="4">
         <v>19.2</v>
@@ -4702,7 +4708,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C164" s="4">
         <v>16</v>
@@ -4728,7 +4734,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C165" s="4">
         <v>8.5</v>
@@ -4754,7 +4760,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -4780,7 +4786,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C167" s="4">
         <v>13.7</v>
@@ -4806,7 +4812,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C168" s="4">
         <v>0</v>
@@ -4832,7 +4838,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C169" s="4">
         <v>28.2</v>
@@ -4858,7 +4864,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C170" s="4">
         <v>27.6</v>
@@ -4884,7 +4890,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C171" s="4">
         <v>8.4</v>
@@ -4910,7 +4916,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C172" s="4">
         <v>24</v>
@@ -4936,7 +4942,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C173" s="4">
         <v>3.6</v>
@@ -4962,7 +4968,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C174" s="4">
         <v>6.6</v>
@@ -4988,7 +4994,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C175" s="4">
         <v>41.3</v>
@@ -5014,7 +5020,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C176" s="4">
         <v>4.3</v>
@@ -5040,7 +5046,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C177" s="4">
         <v>30.2</v>
@@ -5066,7 +5072,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C178" s="4">
         <v>13.9</v>
@@ -5092,7 +5098,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C179" s="4">
         <v>33</v>
@@ -5118,7 +5124,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C180" s="4">
         <v>13.1</v>
@@ -5144,7 +5150,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C181" s="4">
         <v>14</v>
@@ -5170,7 +5176,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C182" s="4">
         <v>26.9</v>
@@ -5196,7 +5202,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C183" s="4">
         <v>11.6</v>
@@ -5222,7 +5228,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C184" s="4">
         <v>13.5</v>
@@ -5248,7 +5254,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C185" s="4">
         <v>17</v>
@@ -5274,7 +5280,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C186" s="4">
         <v>14.1</v>
@@ -5300,7 +5306,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C187" s="4">
         <v>31.4</v>
@@ -5326,7 +5332,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C188" s="4">
         <v>20.9</v>
@@ -5378,7 +5384,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C190" s="4">
         <v>34.799999999999997</v>
@@ -5404,7 +5410,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C191" s="4">
         <v>16.3</v>
@@ -5430,7 +5436,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C192" s="4">
         <v>35.299999999999997</v>
@@ -5456,7 +5462,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C193" s="4">
         <v>13.2</v>
@@ -5482,7 +5488,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C194" s="4">
         <v>43.8</v>
@@ -5508,7 +5514,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C195" s="4">
         <v>9.6999999999999993</v>
@@ -5534,7 +5540,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C196" s="4">
         <v>15.2</v>
@@ -5560,7 +5566,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C197" s="4">
         <v>15.2</v>
@@ -5612,7 +5618,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C199" s="4">
         <v>34.4</v>
@@ -5638,7 +5644,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C200" s="4">
         <v>34</v>
@@ -5664,7 +5670,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C201" s="4">
         <v>18.2</v>
@@ -5690,7 +5696,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C202" s="4">
         <v>17.399999999999999</v>
@@ -5716,7 +5722,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C203" s="4">
         <v>13.1</v>
@@ -5742,7 +5748,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C204" s="4">
         <v>38.299999999999997</v>
@@ -5768,7 +5774,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C205" s="4">
         <v>15.6</v>
@@ -5820,7 +5826,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C207" s="4">
         <v>12.8</v>
@@ -5846,7 +5852,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C208" s="4">
         <v>22.2</v>
@@ -5872,7 +5878,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C209" s="4">
         <v>38.5</v>
@@ -5898,7 +5904,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C210" s="4">
         <v>11.5</v>
@@ -5924,7 +5930,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C211" s="4">
         <v>34.799999999999997</v>
@@ -5950,7 +5956,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C212" s="4">
         <v>5.2</v>
@@ -5976,7 +5982,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C213" s="4">
         <v>0</v>
@@ -6002,7 +6008,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C214" s="4">
         <v>17.600000000000001</v>
@@ -6028,7 +6034,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C215" s="4">
         <v>6.2</v>
@@ -6054,7 +6060,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C216" s="4">
         <v>18.100000000000001</v>
@@ -6080,7 +6086,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C217" s="4">
         <v>19.2</v>
@@ -6106,7 +6112,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C218" s="4">
         <v>37.799999999999997</v>
@@ -6132,7 +6138,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C219" s="4">
         <v>28</v>
@@ -6158,7 +6164,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C220" s="4">
         <v>13.6</v>
@@ -6184,7 +6190,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C221" s="4">
         <v>29.3</v>
@@ -6210,7 +6216,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C222" s="4">
         <v>37.200000000000003</v>
@@ -6236,7 +6242,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C223" s="4">
         <v>9</v>
@@ -6262,7 +6268,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C224" s="4">
         <v>30.6</v>
@@ -6288,7 +6294,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C225" s="4">
         <v>9.1</v>
@@ -6314,7 +6320,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C226" s="4">
         <v>34.5</v>
@@ -6340,7 +6346,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C227" s="4">
         <v>1.1000000000000001</v>
@@ -6392,7 +6398,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C229" s="4">
         <v>32.4</v>
@@ -6418,7 +6424,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C230" s="4">
         <v>11.9</v>
@@ -6444,7 +6450,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C231" s="4">
         <v>31</v>
@@ -6470,7 +6476,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C232" s="4">
         <v>4</v>
@@ -6496,7 +6502,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C233" s="4">
         <v>16.2</v>
@@ -6522,7 +6528,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C234" s="4">
         <v>27.1</v>
@@ -6548,7 +6554,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C235" s="4">
         <v>39.700000000000003</v>
@@ -6574,7 +6580,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C236" s="4">
         <v>8</v>
@@ -6600,7 +6606,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C237" s="4">
         <v>12.9</v>
@@ -6626,7 +6632,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C238" s="4">
         <v>3.6</v>
@@ -6652,7 +6658,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C239" s="4">
         <v>13</v>
@@ -6678,7 +6684,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C240" s="4">
         <v>12.8</v>
@@ -6704,7 +6710,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C241" s="4">
         <v>18.100000000000001</v>
@@ -6730,7 +6736,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C242" s="4">
         <v>11</v>
@@ -6756,7 +6762,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C243" s="4">
         <v>13.7</v>
@@ -6782,7 +6788,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C244" s="4">
         <v>2</v>
@@ -6808,7 +6814,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C245" s="4">
         <v>32.799999999999997</v>
@@ -6834,7 +6840,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C246" s="4">
         <v>4.8</v>
@@ -6860,7 +6866,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C247" s="4">
         <v>7.5</v>
@@ -6886,7 +6892,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C248" s="4">
         <v>16.399999999999999</v>
@@ -6912,7 +6918,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C249" s="4">
         <v>21.7</v>
@@ -6964,7 +6970,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C251" s="4">
         <v>18</v>
@@ -6990,7 +6996,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C252" s="4">
         <v>39.200000000000003</v>
@@ -7016,7 +7022,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C253" s="4">
         <v>31.7</v>
@@ -7042,7 +7048,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C254" s="4">
         <v>5.9</v>
@@ -7068,7 +7074,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C255" s="4">
         <v>30.4</v>
@@ -7094,7 +7100,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C256" s="4">
         <v>1.1000000000000001</v>
@@ -7120,7 +7126,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C257" s="4">
         <v>31.5</v>
@@ -7146,7 +7152,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C258" s="4">
         <v>14.6</v>
@@ -7172,7 +7178,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C259" s="4">
         <v>17.3</v>
@@ -7198,7 +7204,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C260" s="4">
         <v>0</v>
@@ -7224,7 +7230,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C261" s="4">
         <v>17.7</v>
@@ -7250,7 +7256,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C262" s="4">
         <v>17</v>
@@ -7276,7 +7282,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C263" s="4">
         <v>16.2</v>
@@ -7302,7 +7308,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C264" s="4">
         <v>15.9</v>
@@ -7328,7 +7334,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C265" s="4">
         <v>3.9</v>
@@ -7354,7 +7360,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C266" s="4">
         <v>32.6</v>
@@ -7380,7 +7386,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C267" s="4">
         <v>15.7</v>
@@ -7406,7 +7412,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C268" s="4">
         <v>17.8</v>
@@ -7432,7 +7438,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C269" s="4">
         <v>34.700000000000003</v>
@@ -7458,7 +7464,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C270" s="4">
         <v>17.2</v>
@@ -7510,7 +7516,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C272" s="4">
         <v>10.8</v>
@@ -7536,7 +7542,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C273" s="4">
         <v>17.7</v>
@@ -7562,7 +7568,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C274" s="4">
         <v>13</v>
@@ -7588,7 +7594,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C275" s="4">
         <v>13.2</v>
@@ -7614,7 +7620,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C276" s="4">
         <v>27.5</v>
@@ -7640,7 +7646,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C277" s="4">
         <v>1.5</v>
@@ -7692,7 +7698,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C279" s="4">
         <v>21.2</v>
@@ -7718,7 +7724,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C280" s="4">
         <v>0</v>
@@ -7744,7 +7750,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C281" s="4">
         <v>2.6</v>
@@ -7770,7 +7776,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C282" s="4">
         <v>2.2999999999999998</v>
@@ -7796,7 +7802,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C283" s="4">
         <v>4.7</v>
@@ -7822,7 +7828,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C284" s="4">
         <v>2</v>
@@ -7848,7 +7854,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C285" s="4">
         <v>33.5</v>
@@ -7874,7 +7880,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C286" s="4">
         <v>15</v>
@@ -7900,7 +7906,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C287" s="4">
         <v>30.1</v>
@@ -7926,7 +7932,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C288" s="4">
         <v>5.9</v>
@@ -7978,7 +7984,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C290" s="4">
         <v>16.600000000000001</v>
@@ -8004,7 +8010,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C291" s="4">
         <v>13.9</v>
@@ -8030,7 +8036,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C292" s="4">
         <v>37.700000000000003</v>
@@ -8056,7 +8062,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C293" s="4">
         <v>3.4</v>
@@ -8082,7 +8088,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C294" s="4">
         <v>17.5</v>
@@ -8108,7 +8114,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C295" s="4">
         <v>12.6</v>
@@ -8134,7 +8140,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C296" s="4">
         <v>26.4</v>
@@ -8160,7 +8166,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C297" s="4">
         <v>18.2</v>
@@ -8186,7 +8192,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C298" s="4">
         <v>12.5</v>
@@ -8212,7 +8218,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C299" s="4">
         <v>34.9</v>
@@ -8238,7 +8244,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C300" s="4">
         <v>16.7</v>
@@ -8264,7 +8270,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C301" s="4">
         <v>33.200000000000003</v>
@@ -8290,7 +8296,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C302" s="4">
         <v>2.5</v>
@@ -8316,7 +8322,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C303" s="4">
         <v>38</v>
@@ -8342,7 +8348,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C304" s="4">
         <v>16.5</v>
@@ -8368,7 +8374,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C305" s="4">
         <v>38.299999999999997</v>
@@ -8394,7 +8400,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C306" s="4">
         <v>20</v>
@@ -8420,7 +8426,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C307" s="4">
         <v>16.2</v>
@@ -8446,7 +8452,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C308" s="4">
         <v>14.4</v>
@@ -8472,7 +8478,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C309" s="4">
         <v>10.3</v>
@@ -8498,7 +8504,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C310" s="4">
         <v>16.399999999999999</v>
@@ -8524,7 +8530,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C311" s="4">
         <v>30.3</v>
@@ -8550,7 +8556,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C312" s="4">
         <v>16.399999999999999</v>
@@ -8576,7 +8582,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C313" s="4">
         <v>21.3</v>
@@ -8602,7 +8608,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C314" s="4">
         <v>35.4</v>
@@ -8628,7 +8634,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C315" s="4">
         <v>8.3000000000000007</v>
@@ -8654,7 +8660,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C316" s="4">
         <v>3.7</v>
@@ -8680,7 +8686,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C317" s="4">
         <v>15.6</v>
@@ -8706,7 +8712,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C318" s="4">
         <v>13.3</v>
@@ -8732,7 +8738,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C319" s="4">
         <v>15.6</v>
@@ -8758,7 +8764,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C320" s="4">
         <v>7.1</v>
@@ -8784,7 +8790,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C321" s="4">
         <v>34.6</v>
@@ -8810,7 +8816,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C322" s="4">
         <v>13.5</v>
@@ -8836,7 +8842,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C323" s="4">
         <v>16.899999999999999</v>
@@ -8888,7 +8894,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C325" s="4">
         <v>28.6</v>
@@ -8914,7 +8920,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C326" s="4">
         <v>12.4</v>
@@ -8940,7 +8946,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C327" s="4">
         <v>36.6</v>
@@ -8966,7 +8972,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C328" s="4">
         <v>4.0999999999999996</v>
@@ -8992,7 +8998,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C329" s="4">
         <v>3.5</v>
@@ -9018,7 +9024,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C330" s="4">
         <v>15.9</v>
@@ -9070,7 +9076,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C332" s="4">
         <v>32</v>
@@ -9096,7 +9102,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C333" s="4">
         <v>25.6</v>
@@ -9122,7 +9128,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C334" s="4">
         <v>39.799999999999997</v>
@@ -9148,7 +9154,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C335" s="4">
         <v>7.8</v>
@@ -9174,7 +9180,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C336" s="4">
         <v>30</v>
@@ -9200,7 +9206,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C337" s="4">
         <v>27.3</v>
@@ -9226,7 +9232,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C338" s="4">
         <v>5.0999999999999996</v>
@@ -9252,7 +9258,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C339" s="4">
         <v>31.3</v>
@@ -9278,7 +9284,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C340" s="4">
         <v>31.5</v>
@@ -9304,7 +9310,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C341" s="4">
         <v>1.7</v>
@@ -9330,7 +9336,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C342" s="4">
         <v>33.6</v>
@@ -9382,7 +9388,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C344" s="4">
         <v>5.7</v>
@@ -9434,7 +9440,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C346" s="4">
         <v>34.6</v>
@@ -9460,7 +9466,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C347" s="4">
         <v>0</v>
@@ -9486,7 +9492,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C348" s="4">
         <v>13.2</v>
@@ -9512,7 +9518,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C349" s="4">
         <v>17.399999999999999</v>
@@ -9538,7 +9544,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C350" s="4">
         <v>4.5999999999999996</v>
@@ -9564,7 +9570,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C351" s="4">
         <v>7.8</v>
@@ -9616,7 +9622,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C353" s="4">
         <v>4</v>
@@ -9642,7 +9648,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C354" s="4">
         <v>18.399999999999999</v>
@@ -9668,7 +9674,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C355" s="4">
         <v>4.0999999999999996</v>
@@ -9694,7 +9700,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C356" s="4">
         <v>12.2</v>
@@ -9720,7 +9726,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C357" s="4">
         <v>3.8</v>
@@ -9746,7 +9752,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C358" s="4">
         <v>10.3</v>
@@ -9772,7 +9778,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C359" s="4">
         <v>0</v>
@@ -9798,7 +9804,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C360" s="4">
         <v>1.1000000000000001</v>
@@ -9824,7 +9830,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C361" s="4">
         <v>5.6</v>
@@ -9850,7 +9856,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C362" s="4">
         <v>32.9</v>
@@ -9876,7 +9882,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C363" s="4">
         <v>41.4</v>
@@ -9902,7 +9908,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C364" s="4">
         <v>17.100000000000001</v>
@@ -9928,7 +9934,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C365" s="4">
         <v>32.299999999999997</v>
@@ -9954,7 +9960,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C366" s="4">
         <v>35.299999999999997</v>
@@ -9980,7 +9986,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C367" s="4">
         <v>17.3</v>
@@ -10006,7 +10012,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C368" s="4">
         <v>14.2</v>
@@ -10032,7 +10038,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C369" s="4">
         <v>15</v>
@@ -10058,7 +10064,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C370" s="4">
         <v>18.2</v>
@@ -10084,7 +10090,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C371" s="4">
         <v>20.2</v>
@@ -10110,7 +10116,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C372" s="4">
         <v>15.9</v>
@@ -10136,7 +10142,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C373" s="4">
         <v>4.0999999999999996</v>
@@ -10188,7 +10194,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C375" s="4">
         <v>0</v>
@@ -10214,7 +10220,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C376" s="4">
         <v>5.4</v>
@@ -10240,7 +10246,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C377" s="4">
         <v>21.7</v>
@@ -10266,7 +10272,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C378" s="4">
         <v>14.7</v>
@@ -10292,7 +10298,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C379" s="4">
         <v>3.9</v>
@@ -10318,7 +10324,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C380" s="4">
         <v>37.299999999999997</v>
@@ -10344,7 +10350,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C381" s="4">
         <v>0</v>
@@ -10370,7 +10376,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C382" s="4">
         <v>14.1</v>
@@ -10396,7 +10402,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C383" s="4">
         <v>8</v>
@@ -10448,7 +10454,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C385" s="4">
         <v>29.1</v>
@@ -10474,7 +10480,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="5">
-        <v>2012.75</v>
+        <v>2013</v>
       </c>
       <c r="C386" s="4">
         <v>16.100000000000001</v>
@@ -10526,7 +10532,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C388" s="4">
         <v>0</v>
@@ -10552,7 +10558,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C389" s="4">
         <v>16.2</v>
@@ -10578,7 +10584,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C390" s="4">
         <v>10.4</v>
@@ -10604,7 +10610,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C391" s="4">
         <v>40.9</v>
@@ -10630,7 +10636,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C392" s="4">
         <v>32.799999999999997</v>
@@ -10656,7 +10662,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="5">
-        <v>2013.5833333</v>
+        <v>2014</v>
       </c>
       <c r="C393" s="4">
         <v>6.2</v>
@@ -10682,7 +10688,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C394" s="4">
         <v>42.7</v>
@@ -10734,7 +10740,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C396" s="4">
         <v>32.6</v>
@@ -10760,7 +10766,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C397" s="4">
         <v>21.2</v>
@@ -10786,7 +10792,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C398" s="4">
         <v>37.1</v>
@@ -10812,7 +10818,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C399" s="4">
         <v>13.1</v>
@@ -10838,7 +10844,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C400" s="4">
         <v>14.7</v>
@@ -10864,7 +10870,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="5">
-        <v>2012.9166667</v>
+        <v>2013</v>
       </c>
       <c r="C401" s="4">
         <v>12.7</v>
@@ -10890,7 +10896,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C402" s="4">
         <v>26.8</v>
@@ -10916,7 +10922,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="5">
-        <v>2013.0833333</v>
+        <v>2013</v>
       </c>
       <c r="C403" s="4">
         <v>7.6</v>
@@ -10942,7 +10948,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="5">
-        <v>2012.8333333</v>
+        <v>2013</v>
       </c>
       <c r="C404" s="4">
         <v>12.7</v>
@@ -10968,7 +10974,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C405" s="4">
         <v>30.9</v>
@@ -10994,7 +11000,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="5">
-        <v>2013.3333333</v>
+        <v>2013</v>
       </c>
       <c r="C406" s="4">
         <v>16.399999999999999</v>
@@ -11020,7 +11026,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C407" s="4">
         <v>23</v>
@@ -11046,7 +11052,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="5">
-        <v>2013.1666667</v>
+        <v>2013</v>
       </c>
       <c r="C408" s="4">
         <v>1.9</v>
@@ -11098,7 +11104,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="5">
-        <v>2013.4166667</v>
+        <v>2013</v>
       </c>
       <c r="C410" s="4">
         <v>18.5</v>
@@ -11150,7 +11156,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="5">
-        <v>2012.6666667</v>
+        <v>2013</v>
       </c>
       <c r="C412" s="4">
         <v>5.6</v>
@@ -11176,7 +11182,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="5">
-        <v>2013.25</v>
+        <v>2013</v>
       </c>
       <c r="C413" s="4">
         <v>18.8</v>
@@ -11228,7 +11234,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="5">
-        <v>2013.5</v>
+        <v>2014</v>
       </c>
       <c r="C415" s="4">
         <v>6.5</v>
@@ -11248,6 +11254,9 @@
       <c r="H415" s="4">
         <v>63.9</v>
       </c>
+    </row>
+    <row r="1048576" spans="8:8">
+      <c r="H1048576"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
